--- a/tabelas/processos_siout_2020-10-01.xlsx
+++ b/tabelas/processos_siout_2020-10-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="497">
   <si>
     <t>Prioridade</t>
   </si>
@@ -46,9 +46,54 @@
     <t>Não</t>
   </si>
   <si>
+    <t>2020/014.974</t>
+  </si>
+  <si>
+    <t>2020/013.600</t>
+  </si>
+  <si>
+    <t>2020/013.471</t>
+  </si>
+  <si>
+    <t>2020/012.821</t>
+  </si>
+  <si>
+    <t>2020/012.816</t>
+  </si>
+  <si>
+    <t>2020/012.793</t>
+  </si>
+  <si>
+    <t>2020/012.601</t>
+  </si>
+  <si>
+    <t>2020/012.232</t>
+  </si>
+  <si>
+    <t>2020/011.687</t>
+  </si>
+  <si>
+    <t>2020/011.303</t>
+  </si>
+  <si>
+    <t>2020/010.833</t>
+  </si>
+  <si>
+    <t>2020/010.778</t>
+  </si>
+  <si>
+    <t>2020/010.683</t>
+  </si>
+  <si>
+    <t>2020/009.773</t>
+  </si>
+  <si>
     <t>2020/009.716</t>
   </si>
   <si>
+    <t>2020/009.392</t>
+  </si>
+  <si>
     <t>2020/008.760</t>
   </si>
   <si>
@@ -67,7 +112,7 @@
     <t>2020/005.099</t>
   </si>
   <si>
-    <t>2020/002.866</t>
+    <t>2020/002.905</t>
   </si>
   <si>
     <t>2020/001.754</t>
@@ -76,15 +121,15 @@
     <t>2020/001.523</t>
   </si>
   <si>
-    <t>2020/000.536</t>
-  </si>
-  <si>
     <t>2020/000.360</t>
   </si>
   <si>
     <t>2019/025.605</t>
   </si>
   <si>
+    <t>2019/024.861</t>
+  </si>
+  <si>
     <t>2019/023.469</t>
   </si>
   <si>
@@ -97,7 +142,7 @@
     <t>2019/021.472</t>
   </si>
   <si>
-    <t>2019/021.194</t>
+    <t>2019/021.085</t>
   </si>
   <si>
     <t>2019/020.046</t>
@@ -124,15 +169,12 @@
     <t>2019/006.177</t>
   </si>
   <si>
-    <t>2019/005.166</t>
+    <t>2019/005.157</t>
   </si>
   <si>
     <t>2019/005.142</t>
   </si>
   <si>
-    <t>2019/004.975</t>
-  </si>
-  <si>
     <t>2019/004.961</t>
   </si>
   <si>
@@ -151,9 +193,6 @@
     <t>2019/003.240</t>
   </si>
   <si>
-    <t>2019/002.997</t>
-  </si>
-  <si>
     <t>2019/002.931</t>
   </si>
   <si>
@@ -166,6 +205,9 @@
     <t>2019/001.316</t>
   </si>
   <si>
+    <t>2019/001.159</t>
+  </si>
+  <si>
     <t>2019/001.003</t>
   </si>
   <si>
@@ -178,6 +220,9 @@
     <t>2018/034.982</t>
   </si>
   <si>
+    <t>2018/034.955</t>
+  </si>
+  <si>
     <t>2018/034.380</t>
   </si>
   <si>
@@ -199,6 +244,9 @@
     <t>2018/031.725</t>
   </si>
   <si>
+    <t>2018/031.548</t>
+  </si>
+  <si>
     <t>2018/031.421</t>
   </si>
   <si>
@@ -289,6 +337,9 @@
     <t>2017/028.651</t>
   </si>
   <si>
+    <t>2017/028.636</t>
+  </si>
+  <si>
     <t>2017/028.632</t>
   </si>
   <si>
@@ -298,12 +349,18 @@
     <t>2017/026.651</t>
   </si>
   <si>
+    <t>2017/011.290</t>
+  </si>
+  <si>
     <t>2017/005.275</t>
   </si>
   <si>
     <t>2017/000.678</t>
   </si>
   <si>
+    <t>2016/013.809</t>
+  </si>
+  <si>
     <t>2016/008.018</t>
   </si>
   <si>
@@ -331,18 +388,48 @@
     <t>CGH</t>
   </si>
   <si>
+    <t>N/D</t>
+  </si>
+  <si>
     <t>PCH</t>
   </si>
   <si>
-    <t>N/D</t>
-  </si>
-  <si>
     <t>UHE</t>
   </si>
   <si>
+    <t>Santo Anjo</t>
+  </si>
+  <si>
+    <t>Passo do Buraco</t>
+  </si>
+  <si>
+    <t>Augusto Pestana</t>
+  </si>
+  <si>
+    <t>Limeira</t>
+  </si>
+  <si>
+    <t>Arroio da Reserva</t>
+  </si>
+  <si>
+    <t>Lixiguana</t>
+  </si>
+  <si>
+    <t>Barra do Ituim</t>
+  </si>
+  <si>
+    <t>Fazenda Velha</t>
+  </si>
+  <si>
+    <t>Igrejinha</t>
+  </si>
+  <si>
     <t>Guabiju II</t>
   </si>
   <si>
+    <t>Collet</t>
+  </si>
+  <si>
     <t>Sede II</t>
   </si>
   <si>
@@ -361,6 +448,9 @@
     <t>Ferradura</t>
   </si>
   <si>
+    <t>São Marcos</t>
+  </si>
+  <si>
     <t>Três Marias</t>
   </si>
   <si>
@@ -373,6 +463,9 @@
     <t>São Jorge</t>
   </si>
   <si>
+    <t>Bernardo José</t>
+  </si>
+  <si>
     <t>di Franco</t>
   </si>
   <si>
@@ -409,6 +502,9 @@
     <t>Pedras Brancas</t>
   </si>
   <si>
+    <t>Touros V</t>
+  </si>
+  <si>
     <t>Touros IV</t>
   </si>
   <si>
@@ -436,6 +532,9 @@
     <t>Serrinha II</t>
   </si>
   <si>
+    <t>Vinhedos</t>
+  </si>
+  <si>
     <t>Rio Ijuizinho</t>
   </si>
   <si>
@@ -448,6 +547,9 @@
     <t>Vale do Leite</t>
   </si>
   <si>
+    <t>São Valentim</t>
+  </si>
+  <si>
     <t>Mariano</t>
   </si>
   <si>
@@ -469,6 +571,9 @@
     <t>Capivari II</t>
   </si>
   <si>
+    <t>Daltro Filho</t>
+  </si>
+  <si>
     <t>Capivara Baixa</t>
   </si>
   <si>
@@ -541,7 +646,7 @@
     <t>Tomé</t>
   </si>
   <si>
-    <t>Arroio da Reserva</t>
+    <t>Forquilha IV Luciano Barancelli</t>
   </si>
   <si>
     <t>Esteira</t>
@@ -550,9 +655,15 @@
     <t>Vieira 01</t>
   </si>
   <si>
+    <t>Pozza I</t>
+  </si>
+  <si>
     <t>Mirim</t>
   </si>
   <si>
+    <t>Sperotto</t>
+  </si>
+  <si>
     <t>Gramado Xavier</t>
   </si>
   <si>
@@ -577,9 +688,33 @@
     <t>Barra de ferro</t>
   </si>
   <si>
+    <t>CGH SANTO ANJO GERAÇÃO DE ENERGIA S.A</t>
+  </si>
+  <si>
+    <t>Z-4 Geração de Energia Elétrica</t>
+  </si>
+  <si>
+    <t>Cooperativa de Geração de Energia e Desenvolvimento Social LTDA</t>
+  </si>
+  <si>
+    <t>VALE DO TURVO HIDRELÉTRICA LTDA</t>
+  </si>
+  <si>
+    <t>Fernando Isoton</t>
+  </si>
+  <si>
+    <t>SAULO SALLES BEVILACQUA NETO</t>
+  </si>
+  <si>
+    <t>BOA VISTA DO CADEADO ENERGIA LTDA.</t>
+  </si>
+  <si>
     <t>AÇO METAIS FRAIBURGO LTDA</t>
   </si>
   <si>
+    <t>Cassiano Collet</t>
+  </si>
+  <si>
     <t>IJUI CENTENARIA GERACAO SPE LTDA</t>
   </si>
   <si>
@@ -589,13 +724,10 @@
     <t>CONSTRUNÍVEL ENERGIAS RENOVÁVEIS LTDA</t>
   </si>
   <si>
-    <t>Fernando Isoton</t>
-  </si>
-  <si>
     <t>BT GERADORA DE ENERGIA ELETRICA S.A.</t>
   </si>
   <si>
-    <t>LINHA ONZE OESTE ENERGIA LTDA</t>
+    <t>HDE 01 PARTICIPACOES SOCIETARIAS EIRELI</t>
   </si>
   <si>
     <t>BORTOLON AGROCOMERCIAL EIRELI</t>
@@ -604,22 +736,19 @@
     <t>ENERBIO SERVICOS DE ENGENHARIA LTDA</t>
   </si>
   <si>
-    <t>USINA HIDRELETRICA SUZANA I LTDA</t>
-  </si>
-  <si>
     <t>COOPERATIVA DE DESENVOLVIMENTO SOCIAL ENTRE RIOS LTDA.</t>
   </si>
   <si>
+    <t>Bernardo José Geração de Energia Ltda</t>
+  </si>
+  <si>
     <t>ALS GERAÇÃO DE ENERGIA SPE LTDA</t>
   </si>
   <si>
     <t>GUARITA GERADORA DE ENERGIA LTDA</t>
   </si>
   <si>
-    <t>Cooperativa de Geração de Energia e Desenvolvimento Social LTDA</t>
-  </si>
-  <si>
-    <t>EUGENIO DE CASTRO GERACAO E COMERCIO DE ENERGIA ELETRICA LTDA</t>
+    <t>Hidrotermica s/a.</t>
   </si>
   <si>
     <t>Vertente Engenharia Ltda</t>
@@ -646,15 +775,12 @@
     <t>CERFOX  COOPERATIVA DE GERAÇÃO E DESENVOLVIMENTO FONTOURA XAVIER</t>
   </si>
   <si>
-    <t>SILVEIRA II ENERGÉTICA S.A.</t>
+    <t>TOUROS V ENERGÉTICA S.A.</t>
   </si>
   <si>
     <t>TOUROS IV ENERGÉTICA S.A.</t>
   </si>
   <si>
-    <t>PALOMA ENERGIA LTDA</t>
-  </si>
-  <si>
     <t>APS Construções EIRELI</t>
   </si>
   <si>
@@ -682,6 +808,9 @@
     <t>OLFAR S/A ALIMENTO E ENERGIA</t>
   </si>
   <si>
+    <t>Enel Brasil S.A</t>
+  </si>
+  <si>
     <t>Certel Vale do Leite Geração de Energia S/A</t>
   </si>
   <si>
@@ -706,6 +835,9 @@
     <t>JCS Engenharia, Consultoria e Participações EIRELLI - EPP</t>
   </si>
   <si>
+    <t>SPE DALTRO FILHO GERAÇÃO DE ENERGIA LTDA</t>
+  </si>
+  <si>
     <t>PARTIALIS COMERCIO E GERAÇÃO DE ENERGIA S/A</t>
   </si>
   <si>
@@ -748,18 +880,48 @@
     <t>ENERGÉTICA RIO LIGEIRO LTDA</t>
   </si>
   <si>
-    <t>SAULO SALLES BEVILACQUA NETO</t>
+    <t>CENTRAL GERADORA HIDRELÉTRICA FORQUILHA LTDA.</t>
+  </si>
+  <si>
+    <t>ITASUL ENERGY GERAÇÃO DE ENERGIA LTDA</t>
   </si>
   <si>
     <t>CONQUISTA GERAÇÃO DE ENERGIA ELÉTRICA LTDA</t>
   </si>
   <si>
+    <t>Hidroelétrica Sperotto Queda do Turvo Ltda</t>
+  </si>
+  <si>
     <t>TRES FRONTEIRAS GERAÇÃO DE ENERGIA</t>
   </si>
   <si>
+    <t>Caxias do Sul</t>
+  </si>
+  <si>
+    <t>Vacaria</t>
+  </si>
+  <si>
+    <t>Ipê</t>
+  </si>
+  <si>
+    <t>André da Rocha</t>
+  </si>
+  <si>
+    <t>Pinhal Grande</t>
+  </si>
+  <si>
+    <t>Muitos Capões</t>
+  </si>
+  <si>
+    <t>Boa Vista do Cadeado</t>
+  </si>
+  <si>
     <t>Esmeralda</t>
   </si>
   <si>
+    <t>Barracão</t>
+  </si>
+  <si>
     <t>Ijuí</t>
   </si>
   <si>
@@ -772,96 +934,84 @@
     <t>Erval Seco</t>
   </si>
   <si>
-    <t>Vacaria</t>
-  </si>
-  <si>
-    <t>Gaurama</t>
-  </si>
-  <si>
     <t>Inhacorá</t>
   </si>
   <si>
-    <t>São Marcos</t>
-  </si>
-  <si>
     <t>Estrela</t>
   </si>
   <si>
+    <t>Maximiliano de Almeida</t>
+  </si>
+  <si>
+    <t>Campestre da Serra</t>
+  </si>
+  <si>
+    <t>Entre-Ijuís</t>
+  </si>
+  <si>
+    <t>Humaitá</t>
+  </si>
+  <si>
+    <t>Sananduva</t>
+  </si>
+  <si>
+    <t>Arvorezinha</t>
+  </si>
+  <si>
+    <t>Bom Jesus</t>
+  </si>
+  <si>
+    <t>Nova Prata</t>
+  </si>
+  <si>
+    <t>Vila Flores</t>
+  </si>
+  <si>
+    <t>Taquaruçu do Sul</t>
+  </si>
+  <si>
+    <t>São José dos Ausentes</t>
+  </si>
+  <si>
+    <t>Protásio Alves</t>
+  </si>
+  <si>
+    <t>Fagundes Varela</t>
+  </si>
+  <si>
+    <t>Pouso Novo</t>
+  </si>
+  <si>
+    <t>São Valentim do Sul</t>
+  </si>
+  <si>
+    <t>Machadinho</t>
+  </si>
+  <si>
+    <t>Monte Alegre dos Campos</t>
+  </si>
+  <si>
+    <t>Panambi</t>
+  </si>
+  <si>
+    <t>Soledade</t>
+  </si>
+  <si>
+    <t>Jacutinga</t>
+  </si>
+  <si>
+    <t>Dom Feliciano</t>
+  </si>
+  <si>
+    <t>Imigrante</t>
+  </si>
+  <si>
+    <t>Alpestre</t>
+  </si>
+  <si>
     <t>Eugênio de Castro</t>
   </si>
   <si>
-    <t>Maximiliano de Almeida</t>
-  </si>
-  <si>
-    <t>Campestre da Serra</t>
-  </si>
-  <si>
-    <t>Entre-Ijuís</t>
-  </si>
-  <si>
-    <t>Humaitá</t>
-  </si>
-  <si>
-    <t>Sananduva</t>
-  </si>
-  <si>
-    <t>Arvorezinha</t>
-  </si>
-  <si>
-    <t>São José dos Ausentes</t>
-  </si>
-  <si>
-    <t>Bom Jesus</t>
-  </si>
-  <si>
-    <t>Barra do Rio Azul</t>
-  </si>
-  <si>
-    <t>Caxias do Sul</t>
-  </si>
-  <si>
-    <t>Nova Prata</t>
-  </si>
-  <si>
-    <t>Vila Flores</t>
-  </si>
-  <si>
-    <t>Taquaruçu do Sul</t>
-  </si>
-  <si>
-    <t>Protásio Alves</t>
-  </si>
-  <si>
-    <t>Pouso Novo</t>
-  </si>
-  <si>
-    <t>Machadinho</t>
-  </si>
-  <si>
-    <t>Monte Alegre dos Campos</t>
-  </si>
-  <si>
-    <t>Panambi</t>
-  </si>
-  <si>
-    <t>Soledade</t>
-  </si>
-  <si>
-    <t>Jacutinga</t>
-  </si>
-  <si>
-    <t>Boa Vista do Cadeado</t>
-  </si>
-  <si>
-    <t>Dom Feliciano</t>
-  </si>
-  <si>
-    <t>Alpestre</t>
-  </si>
-  <si>
-    <t>Ipê</t>
-  </si>
-  <si>
     <t>Entre Rios do Sul</t>
   </si>
   <si>
@@ -871,21 +1021,18 @@
     <t>Serafina Corrêa</t>
   </si>
   <si>
-    <t>André da Rocha</t>
-  </si>
-  <si>
     <t>Santa Cecília do Sul</t>
   </si>
   <si>
     <t>São Francisco de Paula</t>
   </si>
   <si>
-    <t>Pinhal Grande</t>
-  </si>
-  <si>
     <t>Carazinho</t>
   </si>
   <si>
+    <t>Santo Augusto</t>
+  </si>
+  <si>
     <t>Barros Cassal</t>
   </si>
   <si>
@@ -895,18 +1042,54 @@
     <t>Sinimbu</t>
   </si>
   <si>
+    <t>Concedida</t>
+  </si>
+  <si>
+    <t>Aguardando análise</t>
+  </si>
+  <si>
+    <t>Aguardando alterações de dados inconsistentes</t>
+  </si>
+  <si>
     <t>Em análise</t>
   </si>
   <si>
-    <t>Concedida</t>
-  </si>
-  <si>
-    <t>Aguardando alterações de dados inconsistentes</t>
-  </si>
-  <si>
     <t>Indeferida</t>
   </si>
   <si>
+    <t>24/09/2020</t>
+  </si>
+  <si>
+    <t>18/08/2020</t>
+  </si>
+  <si>
+    <t>26/08/2020</t>
+  </si>
+  <si>
+    <t>27/09/2020</t>
+  </si>
+  <si>
+    <t>11/09/2020</t>
+  </si>
+  <si>
+    <t>21/08/2020</t>
+  </si>
+  <si>
+    <t>22/07/2020</t>
+  </si>
+  <si>
+    <t>28/08/2020</t>
+  </si>
+  <si>
+    <t>29/07/2020</t>
+  </si>
+  <si>
+    <t>07/08/2020</t>
+  </si>
+  <si>
+    <t>21/07/2020</t>
+  </si>
+  <si>
     <t>11/06/2020</t>
   </si>
   <si>
@@ -919,16 +1102,16 @@
     <t>01/06/2020</t>
   </si>
   <si>
-    <t>01/05/2020</t>
-  </si>
-  <si>
-    <t>27/04/2020</t>
+    <t>22/06/2020</t>
+  </si>
+  <si>
+    <t>13/08/2020</t>
   </si>
   <si>
     <t>24/04/2020</t>
   </si>
   <si>
-    <t>19/02/2020</t>
+    <t>30/09/2020</t>
   </si>
   <si>
     <t>11/05/2020</t>
@@ -937,117 +1120,123 @@
     <t>09/04/2020</t>
   </si>
   <si>
+    <t>02/03/2020</t>
+  </si>
+  <si>
+    <t>08/04/2020</t>
+  </si>
+  <si>
+    <t>19/06/2020</t>
+  </si>
+  <si>
+    <t>15/04/2020</t>
+  </si>
+  <si>
+    <t>21/02/2020</t>
+  </si>
+  <si>
+    <t>12/06/2020</t>
+  </si>
+  <si>
+    <t>31/07/2020</t>
+  </si>
+  <si>
+    <t>14/04/2020</t>
+  </si>
+  <si>
+    <t>08/01/2020</t>
+  </si>
+  <si>
+    <t>22/07/2019</t>
+  </si>
+  <si>
+    <t>20/04/2020</t>
+  </si>
+  <si>
+    <t>16/03/2020</t>
+  </si>
+  <si>
+    <t>16/05/2019</t>
+  </si>
+  <si>
+    <t>20/07/2020</t>
+  </si>
+  <si>
+    <t>26/06/2020</t>
+  </si>
+  <si>
+    <t>04/02/2020</t>
+  </si>
+  <si>
+    <t>29/04/2020</t>
+  </si>
+  <si>
+    <t>08/06/2020</t>
+  </si>
+  <si>
+    <t>28/01/2020</t>
+  </si>
+  <si>
+    <t>13/12/2019</t>
+  </si>
+  <si>
+    <t>06/02/2019</t>
+  </si>
+  <si>
+    <t>16/04/2020</t>
+  </si>
+  <si>
+    <t>25/09/2020</t>
+  </si>
+  <si>
+    <t>07/02/2019</t>
+  </si>
+  <si>
+    <t>12/08/2020</t>
+  </si>
+  <si>
+    <t>10/08/2020</t>
+  </si>
+  <si>
+    <t>14/02/2020</t>
+  </si>
+  <si>
+    <t>09/09/2020</t>
+  </si>
+  <si>
+    <t>07/07/2020</t>
+  </si>
+  <si>
+    <t>27/07/2020</t>
+  </si>
+  <si>
+    <t>12/02/2019</t>
+  </si>
+  <si>
+    <t>22/09/2020</t>
+  </si>
+  <si>
+    <t>04/03/2020</t>
+  </si>
+  <si>
+    <t>12/03/2020</t>
+  </si>
+  <si>
+    <t>10/03/2020</t>
+  </si>
+  <si>
+    <t>16/07/2020</t>
+  </si>
+  <si>
+    <t>28/11/2018</t>
+  </si>
+  <si>
+    <t>20/09/2018</t>
+  </si>
+  <si>
     <t>16/01/2020</t>
   </si>
   <si>
-    <t>02/03/2020</t>
-  </si>
-  <si>
-    <t>08/04/2020</t>
-  </si>
-  <si>
-    <t>15/04/2020</t>
-  </si>
-  <si>
-    <t>21/02/2020</t>
-  </si>
-  <si>
-    <t>10/02/2020</t>
-  </si>
-  <si>
-    <t>12/06/2020</t>
-  </si>
-  <si>
-    <t>14/04/2020</t>
-  </si>
-  <si>
-    <t>08/01/2020</t>
-  </si>
-  <si>
-    <t>22/07/2019</t>
-  </si>
-  <si>
-    <t>20/04/2020</t>
-  </si>
-  <si>
-    <t>16/03/2020</t>
-  </si>
-  <si>
-    <t>16/05/2019</t>
-  </si>
-  <si>
-    <t>13/11/2019</t>
-  </si>
-  <si>
-    <t>22/05/2020</t>
-  </si>
-  <si>
-    <t>05/06/2020</t>
-  </si>
-  <si>
-    <t>22/05/2019</t>
-  </si>
-  <si>
-    <t>04/02/2020</t>
-  </si>
-  <si>
-    <t>29/04/2020</t>
-  </si>
-  <si>
-    <t>08/06/2020</t>
-  </si>
-  <si>
-    <t>20/02/2020</t>
-  </si>
-  <si>
-    <t>28/01/2020</t>
-  </si>
-  <si>
-    <t>30/04/2020</t>
-  </si>
-  <si>
-    <t>31/01/2020</t>
-  </si>
-  <si>
-    <t>13/12/2019</t>
-  </si>
-  <si>
-    <t>06/02/2019</t>
-  </si>
-  <si>
-    <t>16/04/2020</t>
-  </si>
-  <si>
-    <t>07/02/2019</t>
-  </si>
-  <si>
-    <t>14/02/2020</t>
-  </si>
-  <si>
-    <t>07/01/2020</t>
-  </si>
-  <si>
-    <t>12/02/2019</t>
-  </si>
-  <si>
-    <t>27/05/2020</t>
-  </si>
-  <si>
-    <t>04/03/2020</t>
-  </si>
-  <si>
-    <t>12/03/2020</t>
-  </si>
-  <si>
-    <t>27/11/2019</t>
-  </si>
-  <si>
-    <t>28/11/2018</t>
-  </si>
-  <si>
-    <t>20/09/2018</t>
-  </si>
-  <si>
     <t>11/12/2018</t>
   </si>
   <si>
@@ -1093,7 +1282,7 @@
     <t>22/03/2019</t>
   </si>
   <si>
-    <t>17/10/2018</t>
+    <t>08/07/2020</t>
   </si>
   <si>
     <t>17/12/2019</t>
@@ -1117,21 +1306,60 @@
     <t>22/04/2020</t>
   </si>
   <si>
+    <t>31/08/2020</t>
+  </si>
+  <si>
     <t>26/05/2020</t>
   </si>
   <si>
-    <t>14/10/2019</t>
-  </si>
-  <si>
-    <t>17/10/2019</t>
-  </si>
-  <si>
-    <t>16/10/2019</t>
+    <t>14/07/2020</t>
+  </si>
+  <si>
+    <t>01/07/2020</t>
+  </si>
+  <si>
+    <t>R-001.688/2020</t>
+  </si>
+  <si>
+    <t>R-001.624/2020</t>
+  </si>
+  <si>
+    <t>R-001.608/2020</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
+    <t>R-001.692/2020</t>
+  </si>
+  <si>
+    <t>R-001.693/2020</t>
+  </si>
+  <si>
+    <t>R-001.677/2020</t>
+  </si>
+  <si>
+    <t>R-001.607/2020</t>
+  </si>
+  <si>
+    <t>R-001.538/2020</t>
+  </si>
+  <si>
+    <t>R-001.678/2020</t>
+  </si>
+  <si>
+    <t>R-001.539/2020</t>
+  </si>
+  <si>
+    <t>O-001.394/2020</t>
+  </si>
+  <si>
+    <t>R-001.236/2020</t>
+  </si>
+  <si>
+    <t>R-001.572/2020</t>
+  </si>
+  <si>
     <t>O-001.056/2020</t>
   </si>
   <si>
@@ -1156,6 +1384,9 @@
     <t>R-000.837/2020</t>
   </si>
   <si>
+    <t>R-001.333/2020</t>
+  </si>
+  <si>
     <t>R-000.838/2020</t>
   </si>
   <si>
@@ -1165,9 +1396,6 @@
     <t>R-001.142/2020</t>
   </si>
   <si>
-    <t>R-000.900/2020</t>
-  </si>
-  <si>
     <t>R-000.839/2020</t>
   </si>
   <si>
@@ -1183,6 +1411,9 @@
     <t>O-000.644/2020</t>
   </si>
   <si>
+    <t>O-001.537/2020</t>
+  </si>
+  <si>
     <t>O-000.841/2020</t>
   </si>
   <si>
@@ -1195,7 +1426,10 @@
     <t>O-001.105/2020</t>
   </si>
   <si>
-    <t>O-000.899/2020</t>
+    <t>O-001.535/2020</t>
+  </si>
+  <si>
+    <t>O-001.536/2020</t>
   </si>
   <si>
     <t>O-000.464/2019</t>
@@ -1204,9 +1438,15 @@
     <t>R-000.897/2020</t>
   </si>
   <si>
+    <t>O-001.497/2020</t>
+  </si>
+  <si>
     <t>R-000.594/2020</t>
   </si>
   <si>
+    <t>R-001.687/2020</t>
+  </si>
+  <si>
     <t>R-000.842/2020</t>
   </si>
   <si>
@@ -1219,6 +1459,9 @@
     <t>R-001.103/2020</t>
   </si>
   <si>
+    <t>R-001.423/2020</t>
+  </si>
+  <si>
     <t>R-000.643/2020</t>
   </si>
   <si>
@@ -1255,7 +1498,13 @@
     <t>R-000.866/2020</t>
   </si>
   <si>
+    <t>O-001.609/2020</t>
+  </si>
+  <si>
     <t>O-000.957/2020</t>
+  </si>
+  <si>
+    <t>O-001.392/2020</t>
   </si>
 </sst>
 </file>
@@ -1613,7 +1862,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1656,25 +1905,25 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="F2" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="G2" t="s">
-        <v>293</v>
+        <v>342</v>
       </c>
       <c r="H2" t="s">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="I2" t="s">
-        <v>371</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1685,25 +1934,25 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="F3" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="G3" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="H3" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="I3" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1714,25 +1963,25 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="F4" t="s">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="G4" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="H4" t="s">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="I4" t="s">
-        <v>373</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1743,25 +1992,25 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="E5" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="F5" t="s">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="G5" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="H5" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="I5" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1772,25 +2021,25 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="F6" t="s">
-        <v>250</v>
+        <v>295</v>
       </c>
       <c r="G6" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="H6" t="s">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="I6" t="s">
-        <v>371</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1801,25 +2050,25 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>295</v>
       </c>
       <c r="G7" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="H7" t="s">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="I7" t="s">
-        <v>371</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1830,25 +2079,25 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="F8" t="s">
-        <v>251</v>
+        <v>142</v>
       </c>
       <c r="G8" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="H8" t="s">
-        <v>303</v>
+        <v>352</v>
       </c>
       <c r="I8" t="s">
-        <v>375</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1859,25 +2108,25 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
+        <v>296</v>
       </c>
       <c r="G9" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="H9" t="s">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="I9" t="s">
-        <v>371</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1888,25 +2137,25 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="F10" t="s">
-        <v>252</v>
+        <v>297</v>
       </c>
       <c r="G10" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="H10" t="s">
-        <v>305</v>
+        <v>354</v>
       </c>
       <c r="I10" t="s">
-        <v>376</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1917,25 +2166,25 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="F11" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="G11" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="H11" t="s">
-        <v>306</v>
+        <v>355</v>
       </c>
       <c r="I11" t="s">
-        <v>377</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1946,25 +2195,25 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E12" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="F12" t="s">
-        <v>253</v>
+        <v>298</v>
       </c>
       <c r="G12" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="H12" t="s">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="I12" t="s">
-        <v>371</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1975,25 +2224,25 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="F13" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="G13" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="H13" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="I13" t="s">
-        <v>378</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2004,25 +2253,25 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E14" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="F14" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="G14" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="H14" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="I14" t="s">
-        <v>379</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2033,25 +2282,25 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="E15" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="F15" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="G15" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="H15" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="I15" t="s">
-        <v>380</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2062,25 +2311,25 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="F16" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="G16" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="H16" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="I16" t="s">
-        <v>381</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2091,25 +2340,25 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="E17" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="F17" t="s">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="G17" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="H17" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="I17" t="s">
-        <v>371</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2120,25 +2369,25 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E18" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>302</v>
       </c>
       <c r="G18" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="H18" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="I18" t="s">
-        <v>382</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2149,25 +2398,25 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="E19" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="F19" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="G19" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="H19" t="s">
-        <v>302</v>
+        <v>360</v>
       </c>
       <c r="I19" t="s">
-        <v>383</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2178,25 +2427,25 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="E20" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="F20" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="G20" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="H20" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="I20" t="s">
-        <v>384</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2207,25 +2456,25 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="E21" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="F21" t="s">
-        <v>259</v>
+        <v>304</v>
       </c>
       <c r="G21" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="H21" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="I21" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2236,25 +2485,25 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="E22" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="F22" t="s">
-        <v>260</v>
+        <v>142</v>
       </c>
       <c r="G22" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="H22" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="I22" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2265,25 +2514,25 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E23" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="F23" t="s">
-        <v>247</v>
+        <v>305</v>
       </c>
       <c r="G23" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="H23" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="I23" t="s">
-        <v>386</v>
+        <v>451</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2294,25 +2543,25 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="F24" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="G24" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="H24" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="I24" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2323,25 +2572,25 @@
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E25" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="F25" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="G25" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H25" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="I25" t="s">
-        <v>371</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2352,25 +2601,25 @@
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="E26" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="F26" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="G26" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="H26" t="s">
-        <v>308</v>
+        <v>367</v>
       </c>
       <c r="I26" t="s">
-        <v>388</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2381,25 +2630,25 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="E27" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="F27" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G27" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="H27" t="s">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="I27" t="s">
-        <v>371</v>
+        <v>454</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2410,25 +2659,25 @@
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="E28" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="F28" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="G28" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="H28" t="s">
-        <v>321</v>
+        <v>369</v>
       </c>
       <c r="I28" t="s">
-        <v>371</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2439,25 +2688,25 @@
         <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="F29" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="G29" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="H29" t="s">
-        <v>317</v>
+        <v>370</v>
       </c>
       <c r="I29" t="s">
-        <v>389</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2468,25 +2717,25 @@
         <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="E30" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="F30" t="s">
-        <v>266</v>
+        <v>144</v>
       </c>
       <c r="G30" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="H30" t="s">
-        <v>322</v>
+        <v>371</v>
       </c>
       <c r="I30" t="s">
-        <v>371</v>
+        <v>457</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2497,25 +2746,25 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="E31" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="F31" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="G31" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="H31" t="s">
-        <v>323</v>
+        <v>372</v>
       </c>
       <c r="I31" t="s">
-        <v>371</v>
+        <v>458</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2526,25 +2775,25 @@
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="E32" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="F32" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="G32" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="H32" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="I32" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2555,25 +2804,25 @@
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="E33" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="F33" t="s">
-        <v>269</v>
+        <v>153</v>
       </c>
       <c r="G33" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="H33" t="s">
-        <v>325</v>
+        <v>373</v>
       </c>
       <c r="I33" t="s">
-        <v>391</v>
+        <v>459</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2584,25 +2833,25 @@
         <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="D34" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E34" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="F34" t="s">
-        <v>135</v>
+        <v>295</v>
       </c>
       <c r="G34" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
       <c r="H34" t="s">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="I34" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2613,25 +2862,25 @@
         <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D35" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="E35" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="F35" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="G35" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="H35" t="s">
-        <v>327</v>
+        <v>375</v>
       </c>
       <c r="I35" t="s">
-        <v>371</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2642,25 +2891,25 @@
         <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="E36" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="F36" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="G36" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H36" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="I36" t="s">
-        <v>371</v>
+        <v>461</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2671,25 +2920,25 @@
         <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="E37" t="s">
-        <v>189</v>
+        <v>247</v>
       </c>
       <c r="F37" t="s">
-        <v>249</v>
+        <v>310</v>
       </c>
       <c r="G37" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="H37" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="I37" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2700,25 +2949,25 @@
         <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="E38" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="F38" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="G38" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="H38" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="I38" t="s">
-        <v>371</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2729,25 +2978,25 @@
         <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="E39" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="F39" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="G39" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="H39" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="I39" t="s">
-        <v>394</v>
+        <v>463</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2758,25 +3007,25 @@
         <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="E40" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F40" t="s">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="G40" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="H40" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="I40" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2787,25 +3036,25 @@
         <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="E41" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="F41" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="G41" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="H41" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="I41" t="s">
-        <v>395</v>
+        <v>464</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2816,25 +3065,25 @@
         <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="E42" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="F42" t="s">
-        <v>260</v>
+        <v>313</v>
       </c>
       <c r="G42" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="H42" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="I42" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2845,25 +3094,25 @@
         <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="E43" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="F43" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="G43" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="H43" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="I43" t="s">
-        <v>371</v>
+        <v>465</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2874,25 +3123,25 @@
         <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="E44" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="F44" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="G44" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="H44" t="s">
-        <v>326</v>
+        <v>378</v>
       </c>
       <c r="I44" t="s">
-        <v>371</v>
+        <v>466</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2903,25 +3152,25 @@
         <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="E45" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F45" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="G45" t="s">
-        <v>294</v>
+        <v>346</v>
       </c>
       <c r="H45" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="I45" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2932,25 +3181,25 @@
         <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="E46" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="F46" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="G46" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="H46" t="s">
-        <v>328</v>
+        <v>383</v>
       </c>
       <c r="I46" t="s">
-        <v>371</v>
+        <v>467</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2961,25 +3210,25 @@
         <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D47" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="E47" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="F47" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="G47" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="H47" t="s">
-        <v>314</v>
+        <v>384</v>
       </c>
       <c r="I47" t="s">
-        <v>397</v>
+        <v>468</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2990,25 +3239,25 @@
         <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="E48" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="F48" t="s">
-        <v>275</v>
+        <v>167</v>
       </c>
       <c r="G48" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="H48" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="I48" t="s">
-        <v>371</v>
+        <v>469</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3019,25 +3268,25 @@
         <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="E49" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="F49" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="G49" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H49" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="I49" t="s">
-        <v>371</v>
+        <v>470</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3048,25 +3297,25 @@
         <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E50" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F50" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="G50" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="H50" t="s">
-        <v>338</v>
+        <v>386</v>
       </c>
       <c r="I50" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3077,25 +3326,25 @@
         <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D51" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="E51" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="F51" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="G51" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="H51" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="I51" t="s">
-        <v>398</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3106,25 +3355,25 @@
         <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="E52" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="F52" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="G52" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="H52" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="I52" t="s">
-        <v>399</v>
+        <v>472</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3135,25 +3384,25 @@
         <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="E53" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="F53" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="G53" t="s">
-        <v>294</v>
+        <v>346</v>
       </c>
       <c r="H53" t="s">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="I53" t="s">
-        <v>400</v>
+        <v>437</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3164,25 +3413,25 @@
         <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D54" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="E54" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="F54" t="s">
-        <v>251</v>
+        <v>319</v>
       </c>
       <c r="G54" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="H54" t="s">
-        <v>341</v>
+        <v>389</v>
       </c>
       <c r="I54" t="s">
-        <v>371</v>
+        <v>473</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3193,25 +3442,25 @@
         <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D55" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="E55" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="F55" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="G55" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="H55" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
       <c r="I55" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3222,25 +3471,25 @@
         <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D56" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="E56" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="F56" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="G56" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="H56" t="s">
-        <v>343</v>
+        <v>391</v>
       </c>
       <c r="I56" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3251,25 +3500,25 @@
         <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D57" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="E57" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="F57" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="G57" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="H57" t="s">
-        <v>338</v>
+        <v>392</v>
       </c>
       <c r="I57" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3280,25 +3529,25 @@
         <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D58" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="E58" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="F58" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="G58" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="H58" t="s">
-        <v>307</v>
+        <v>393</v>
       </c>
       <c r="I58" t="s">
-        <v>401</v>
+        <v>474</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3309,25 +3558,25 @@
         <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D59" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="E59" t="s">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="F59" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="G59" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="H59" t="s">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="I59" t="s">
-        <v>402</v>
+        <v>475</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3338,25 +3587,25 @@
         <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D60" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="E60" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="F60" t="s">
-        <v>251</v>
+        <v>322</v>
       </c>
       <c r="G60" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="H60" t="s">
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="I60" t="s">
-        <v>403</v>
+        <v>476</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3367,25 +3616,25 @@
         <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D61" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="E61" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="F61" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="G61" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="H61" t="s">
-        <v>346</v>
+        <v>396</v>
       </c>
       <c r="I61" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3396,25 +3645,25 @@
         <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D62" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="E62" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="F62" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="G62" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="H62" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="I62" t="s">
-        <v>404</v>
+        <v>477</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3425,25 +3674,25 @@
         <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D63" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E63" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="F63" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="G63" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="H63" t="s">
-        <v>348</v>
+        <v>397</v>
       </c>
       <c r="I63" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3454,25 +3703,25 @@
         <v>72</v>
       </c>
       <c r="C64" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D64" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="E64" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F64" t="s">
-        <v>265</v>
+        <v>326</v>
       </c>
       <c r="G64" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="H64" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="I64" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3483,25 +3732,25 @@
         <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D65" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E65" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F65" t="s">
-        <v>274</v>
+        <v>327</v>
       </c>
       <c r="G65" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="H65" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="I65" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3512,25 +3761,25 @@
         <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D66" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="E66" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="F66" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="G66" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="H66" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="I66" t="s">
-        <v>371</v>
+        <v>478</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3541,25 +3790,25 @@
         <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D67" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="E67" t="s">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="F67" t="s">
-        <v>122</v>
+        <v>328</v>
       </c>
       <c r="G67" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="H67" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="I67" t="s">
-        <v>371</v>
+        <v>479</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3570,25 +3819,25 @@
         <v>76</v>
       </c>
       <c r="C68" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D68" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="E68" t="s">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="F68" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="G68" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="H68" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="I68" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3599,25 +3848,25 @@
         <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D69" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="E69" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="F69" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="G69" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="H69" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="I69" t="s">
-        <v>371</v>
+        <v>480</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3628,25 +3877,25 @@
         <v>78</v>
       </c>
       <c r="C70" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D70" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="E70" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="F70" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="G70" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="H70" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
       <c r="I70" t="s">
-        <v>406</v>
+        <v>481</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3657,25 +3906,25 @@
         <v>79</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D71" t="s">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="E71" t="s">
-        <v>198</v>
+        <v>275</v>
       </c>
       <c r="F71" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="G71" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="H71" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="I71" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3686,25 +3935,25 @@
         <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D72" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="E72" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="F72" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="G72" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="H72" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="I72" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3715,25 +3964,25 @@
         <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D73" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="E73" t="s">
-        <v>213</v>
+        <v>276</v>
       </c>
       <c r="F73" t="s">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="G73" t="s">
-        <v>296</v>
+        <v>345</v>
       </c>
       <c r="H73" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="I73" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3744,25 +3993,25 @@
         <v>82</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D74" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="E74" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="F74" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="G74" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="H74" t="s">
-        <v>331</v>
+        <v>406</v>
       </c>
       <c r="I74" t="s">
-        <v>407</v>
+        <v>482</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3773,25 +4022,25 @@
         <v>83</v>
       </c>
       <c r="C75" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D75" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="E75" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="F75" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="G75" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="H75" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="I75" t="s">
-        <v>371</v>
+        <v>483</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3802,25 +4051,25 @@
         <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D76" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="E76" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="F76" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="G76" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="H76" t="s">
-        <v>300</v>
+        <v>408</v>
       </c>
       <c r="I76" t="s">
-        <v>408</v>
+        <v>484</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3831,25 +4080,25 @@
         <v>85</v>
       </c>
       <c r="C77" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="D77" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="E77" t="s">
-        <v>213</v>
+        <v>278</v>
       </c>
       <c r="F77" t="s">
-        <v>267</v>
+        <v>332</v>
       </c>
       <c r="G77" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="H77" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="I77" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3860,25 +4109,25 @@
         <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D78" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="E78" t="s">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c r="F78" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="G78" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="H78" t="s">
-        <v>348</v>
+        <v>410</v>
       </c>
       <c r="I78" t="s">
-        <v>371</v>
+        <v>485</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3889,25 +4138,25 @@
         <v>87</v>
       </c>
       <c r="C79" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D79" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="E79" t="s">
-        <v>203</v>
+        <v>280</v>
       </c>
       <c r="F79" t="s">
-        <v>259</v>
+        <v>324</v>
       </c>
       <c r="G79" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="H79" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="I79" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3918,25 +4167,25 @@
         <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D80" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="E80" t="s">
-        <v>203</v>
+        <v>281</v>
       </c>
       <c r="F80" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="G80" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="H80" t="s">
-        <v>310</v>
+        <v>412</v>
       </c>
       <c r="I80" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3947,25 +4196,25 @@
         <v>89</v>
       </c>
       <c r="C81" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D81" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="E81" t="s">
-        <v>203</v>
+        <v>282</v>
       </c>
       <c r="F81" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="G81" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="H81" t="s">
-        <v>362</v>
+        <v>413</v>
       </c>
       <c r="I81" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3976,25 +4225,25 @@
         <v>90</v>
       </c>
       <c r="C82" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D82" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="E82" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="F82" t="s">
-        <v>288</v>
+        <v>198</v>
       </c>
       <c r="G82" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="H82" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="I82" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -4005,25 +4254,25 @@
         <v>91</v>
       </c>
       <c r="C83" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D83" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="E83" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="F83" t="s">
-        <v>254</v>
+        <v>153</v>
       </c>
       <c r="G83" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="H83" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
       <c r="I83" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -4034,25 +4283,25 @@
         <v>92</v>
       </c>
       <c r="C84" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D84" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="E84" t="s">
-        <v>203</v>
+        <v>272</v>
       </c>
       <c r="F84" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="G84" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="H84" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
       <c r="I84" t="s">
-        <v>411</v>
+        <v>486</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4063,25 +4312,25 @@
         <v>93</v>
       </c>
       <c r="C85" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D85" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="E85" t="s">
-        <v>203</v>
+        <v>284</v>
       </c>
       <c r="F85" t="s">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="G85" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="H85" t="s">
-        <v>366</v>
+        <v>417</v>
       </c>
       <c r="I85" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4092,25 +4341,25 @@
         <v>94</v>
       </c>
       <c r="C86" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D86" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="E86" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="F86" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="G86" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="H86" t="s">
-        <v>305</v>
+        <v>418</v>
       </c>
       <c r="I86" t="s">
-        <v>413</v>
+        <v>487</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4121,25 +4370,25 @@
         <v>95</v>
       </c>
       <c r="C87" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D87" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="E87" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="F87" t="s">
-        <v>248</v>
+        <v>307</v>
       </c>
       <c r="G87" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="H87" t="s">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="I87" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4150,25 +4399,25 @@
         <v>96</v>
       </c>
       <c r="C88" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D88" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="E88" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="F88" t="s">
-        <v>179</v>
+        <v>296</v>
       </c>
       <c r="G88" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="H88" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="I88" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4179,25 +4428,25 @@
         <v>97</v>
       </c>
       <c r="C89" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D89" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="E89" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F89" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G89" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="H89" t="s">
-        <v>368</v>
+        <v>421</v>
       </c>
       <c r="I89" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4208,25 +4457,25 @@
         <v>98</v>
       </c>
       <c r="C90" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D90" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="E90" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F90" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G90" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="H90" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="I90" t="s">
-        <v>371</v>
+        <v>488</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4237,25 +4486,25 @@
         <v>99</v>
       </c>
       <c r="C91" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D91" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="E91" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F91" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G91" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="H91" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="I91" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4266,25 +4515,25 @@
         <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D92" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="E92" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="F92" t="s">
-        <v>185</v>
+        <v>335</v>
       </c>
       <c r="G92" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="H92" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="I92" t="s">
-        <v>371</v>
+        <v>489</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4295,25 +4544,25 @@
         <v>101</v>
       </c>
       <c r="C93" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D93" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="E93" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F93" t="s">
-        <v>185</v>
+        <v>293</v>
       </c>
       <c r="G93" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="H93" t="s">
-        <v>368</v>
+        <v>423</v>
       </c>
       <c r="I93" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4324,25 +4573,25 @@
         <v>102</v>
       </c>
       <c r="C94" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D94" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="E94" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F94" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G94" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="H94" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="I94" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4353,25 +4602,576 @@
         <v>103</v>
       </c>
       <c r="C95" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D95" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="E95" t="s">
         <v>246</v>
       </c>
       <c r="F95" t="s">
-        <v>179</v>
+        <v>309</v>
       </c>
       <c r="G95" t="s">
+        <v>346</v>
+      </c>
+      <c r="H95" t="s">
+        <v>424</v>
+      </c>
+      <c r="I95" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" t="s">
+        <v>123</v>
+      </c>
+      <c r="D96" t="s">
+        <v>208</v>
+      </c>
+      <c r="E96" t="s">
+        <v>246</v>
+      </c>
+      <c r="F96" t="s">
         <v>295</v>
       </c>
-      <c r="H95" t="s">
-        <v>368</v>
-      </c>
-      <c r="I95" t="s">
+      <c r="G96" t="s">
+        <v>342</v>
+      </c>
+      <c r="H96" t="s">
         <v>371</v>
+      </c>
+      <c r="I96" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" t="s">
+        <v>123</v>
+      </c>
+      <c r="D97" t="s">
+        <v>209</v>
+      </c>
+      <c r="E97" t="s">
+        <v>246</v>
+      </c>
+      <c r="F97" t="s">
+        <v>336</v>
+      </c>
+      <c r="G97" t="s">
+        <v>342</v>
+      </c>
+      <c r="H97" t="s">
+        <v>425</v>
+      </c>
+      <c r="I97" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" t="s">
+        <v>123</v>
+      </c>
+      <c r="D98" t="s">
+        <v>131</v>
+      </c>
+      <c r="E98" t="s">
+        <v>229</v>
+      </c>
+      <c r="F98" t="s">
+        <v>297</v>
+      </c>
+      <c r="G98" t="s">
+        <v>346</v>
+      </c>
+      <c r="H98" t="s">
+        <v>426</v>
+      </c>
+      <c r="I98" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" t="s">
+        <v>125</v>
+      </c>
+      <c r="D99" t="s">
+        <v>210</v>
+      </c>
+      <c r="E99" t="s">
+        <v>288</v>
+      </c>
+      <c r="F99" t="s">
+        <v>308</v>
+      </c>
+      <c r="G99" t="s">
+        <v>345</v>
+      </c>
+      <c r="H99" t="s">
+        <v>365</v>
+      </c>
+      <c r="I99" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>108</v>
+      </c>
+      <c r="C100" t="s">
+        <v>123</v>
+      </c>
+      <c r="D100" t="s">
+        <v>147</v>
+      </c>
+      <c r="E100" t="s">
+        <v>240</v>
+      </c>
+      <c r="F100" t="s">
+        <v>306</v>
+      </c>
+      <c r="G100" t="s">
+        <v>346</v>
+      </c>
+      <c r="H100" t="s">
+        <v>427</v>
+      </c>
+      <c r="I100" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>109</v>
+      </c>
+      <c r="C101" t="s">
+        <v>123</v>
+      </c>
+      <c r="D101" t="s">
+        <v>211</v>
+      </c>
+      <c r="E101" t="s">
+        <v>246</v>
+      </c>
+      <c r="F101" t="s">
+        <v>324</v>
+      </c>
+      <c r="G101" t="s">
+        <v>342</v>
+      </c>
+      <c r="H101" t="s">
+        <v>428</v>
+      </c>
+      <c r="I101" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" t="s">
+        <v>123</v>
+      </c>
+      <c r="D102" t="s">
+        <v>212</v>
+      </c>
+      <c r="E102" t="s">
+        <v>246</v>
+      </c>
+      <c r="F102" t="s">
+        <v>295</v>
+      </c>
+      <c r="G102" t="s">
+        <v>342</v>
+      </c>
+      <c r="H102" t="s">
+        <v>429</v>
+      </c>
+      <c r="I102" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>111</v>
+      </c>
+      <c r="C103" t="s">
+        <v>123</v>
+      </c>
+      <c r="D103" t="s">
+        <v>213</v>
+      </c>
+      <c r="E103" t="s">
+        <v>289</v>
+      </c>
+      <c r="F103" t="s">
+        <v>323</v>
+      </c>
+      <c r="G103" t="s">
+        <v>342</v>
+      </c>
+      <c r="H103" t="s">
+        <v>430</v>
+      </c>
+      <c r="I103" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" t="s">
+        <v>123</v>
+      </c>
+      <c r="D104" t="s">
+        <v>214</v>
+      </c>
+      <c r="E104" t="s">
+        <v>290</v>
+      </c>
+      <c r="F104" t="s">
+        <v>337</v>
+      </c>
+      <c r="G104" t="s">
+        <v>342</v>
+      </c>
+      <c r="H104" t="s">
+        <v>366</v>
+      </c>
+      <c r="I104" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>113</v>
+      </c>
+      <c r="C105" t="s">
+        <v>125</v>
+      </c>
+      <c r="D105" t="s">
+        <v>138</v>
+      </c>
+      <c r="E105" t="s">
+        <v>233</v>
+      </c>
+      <c r="F105" t="s">
+        <v>302</v>
+      </c>
+      <c r="G105" t="s">
+        <v>346</v>
+      </c>
+      <c r="H105" t="s">
+        <v>431</v>
+      </c>
+      <c r="I105" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" t="s">
+        <v>114</v>
+      </c>
+      <c r="C106" t="s">
+        <v>123</v>
+      </c>
+      <c r="D106" t="s">
+        <v>215</v>
+      </c>
+      <c r="E106" t="s">
+        <v>291</v>
+      </c>
+      <c r="F106" t="s">
+        <v>338</v>
+      </c>
+      <c r="G106" t="s">
+        <v>342</v>
+      </c>
+      <c r="H106" t="s">
+        <v>357</v>
+      </c>
+      <c r="I106" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" t="s">
+        <v>123</v>
+      </c>
+      <c r="D107" t="s">
+        <v>216</v>
+      </c>
+      <c r="E107" t="s">
+        <v>292</v>
+      </c>
+      <c r="F107" t="s">
+        <v>216</v>
+      </c>
+      <c r="G107" t="s">
+        <v>344</v>
+      </c>
+      <c r="H107" t="s">
+        <v>422</v>
+      </c>
+      <c r="I107" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>116</v>
+      </c>
+      <c r="C108" t="s">
+        <v>123</v>
+      </c>
+      <c r="D108" t="s">
+        <v>217</v>
+      </c>
+      <c r="E108" t="s">
+        <v>292</v>
+      </c>
+      <c r="F108" t="s">
+        <v>339</v>
+      </c>
+      <c r="G108" t="s">
+        <v>344</v>
+      </c>
+      <c r="H108" t="s">
+        <v>396</v>
+      </c>
+      <c r="I108" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" t="s">
+        <v>117</v>
+      </c>
+      <c r="C109" t="s">
+        <v>125</v>
+      </c>
+      <c r="D109" t="s">
+        <v>218</v>
+      </c>
+      <c r="E109" t="s">
+        <v>292</v>
+      </c>
+      <c r="F109" t="s">
+        <v>340</v>
+      </c>
+      <c r="G109" t="s">
+        <v>344</v>
+      </c>
+      <c r="H109" t="s">
+        <v>396</v>
+      </c>
+      <c r="I109" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" t="s">
+        <v>118</v>
+      </c>
+      <c r="C110" t="s">
+        <v>125</v>
+      </c>
+      <c r="D110" t="s">
+        <v>219</v>
+      </c>
+      <c r="E110" t="s">
+        <v>292</v>
+      </c>
+      <c r="F110" t="s">
+        <v>340</v>
+      </c>
+      <c r="G110" t="s">
+        <v>344</v>
+      </c>
+      <c r="H110" t="s">
+        <v>432</v>
+      </c>
+      <c r="I110" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>119</v>
+      </c>
+      <c r="C111" t="s">
+        <v>125</v>
+      </c>
+      <c r="D111" t="s">
+        <v>220</v>
+      </c>
+      <c r="E111" t="s">
+        <v>292</v>
+      </c>
+      <c r="F111" t="s">
+        <v>222</v>
+      </c>
+      <c r="G111" t="s">
+        <v>344</v>
+      </c>
+      <c r="H111" t="s">
+        <v>396</v>
+      </c>
+      <c r="I111" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>120</v>
+      </c>
+      <c r="C112" t="s">
+        <v>123</v>
+      </c>
+      <c r="D112" t="s">
+        <v>221</v>
+      </c>
+      <c r="E112" t="s">
+        <v>292</v>
+      </c>
+      <c r="F112" t="s">
+        <v>222</v>
+      </c>
+      <c r="G112" t="s">
+        <v>344</v>
+      </c>
+      <c r="H112" t="s">
+        <v>433</v>
+      </c>
+      <c r="I112" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
+        <v>121</v>
+      </c>
+      <c r="C113" t="s">
+        <v>123</v>
+      </c>
+      <c r="D113" t="s">
+        <v>222</v>
+      </c>
+      <c r="E113" t="s">
+        <v>292</v>
+      </c>
+      <c r="F113" t="s">
+        <v>341</v>
+      </c>
+      <c r="G113" t="s">
+        <v>344</v>
+      </c>
+      <c r="H113" t="s">
+        <v>432</v>
+      </c>
+      <c r="I113" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>122</v>
+      </c>
+      <c r="C114" t="s">
+        <v>125</v>
+      </c>
+      <c r="D114" t="s">
+        <v>223</v>
+      </c>
+      <c r="E114" t="s">
+        <v>292</v>
+      </c>
+      <c r="F114" t="s">
+        <v>216</v>
+      </c>
+      <c r="G114" t="s">
+        <v>344</v>
+      </c>
+      <c r="H114" t="s">
+        <v>433</v>
+      </c>
+      <c r="I114" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>
